--- a/Trial_Datasheet.xlsx
+++ b/Trial_Datasheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Documents\Durham Work\Year 3\Advanced Lab\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\PycharmProjects\Advanced-Lab-Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF5FE43-CA4F-474F-BAF3-A1824146E386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB88A9DE-8D5C-4135-B1B1-D94BEE67F806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CA12C138-62AC-4433-BC9F-40952045CD1B}"/>
+    <workbookView xWindow="-25710" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{CA12C138-62AC-4433-BC9F-40952045CD1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,16 +38,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Variable 1</t>
+    <t>variable_1</t>
   </si>
   <si>
-    <t>variable 2</t>
+    <t>variable_2</t>
   </si>
   <si>
-    <t>Uncertainty 1</t>
+    <t>uncertainty_1</t>
   </si>
   <si>
-    <t>Uncertainty 2</t>
+    <t>uncertainty_2</t>
   </si>
 </sst>
 </file>
@@ -422,7 +422,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
